--- a/veritabanı tanımları.xlsx
+++ b/veritabanı tanımları.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synology Belgeler\BELGELERIM\HR\Gizli\Maas\veritabanı\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84241DD2-D318-42B2-8B4C-A600D9DB4F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F81047E-B77E-4A8F-8B61-82560122BA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="660" windowWidth="20940" windowHeight="20115" xr2:uid="{9CBCC5F6-D756-4F97-B2DF-7DF3A88E59A8}"/>
+    <workbookView xWindow="5670" yWindow="660" windowWidth="20940" windowHeight="20115" activeTab="1" xr2:uid="{9CBCC5F6-D756-4F97-B2DF-7DF3A88E59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="tablolar" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t>Takım</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Soyadı</t>
-  </si>
-  <si>
-    <t>Alan Adı</t>
   </si>
   <si>
     <t>Tip</t>
@@ -349,6 +346,21 @@
   </si>
   <si>
     <t>TÜSEB Maaş Limiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinsiyet </t>
+  </si>
+  <si>
+    <t>Kolon Adı</t>
+  </si>
+  <si>
+    <t>cinsiyet_enum</t>
+  </si>
+  <si>
+    <t>Kadın</t>
+  </si>
+  <si>
+    <t>Erkek</t>
   </si>
 </sst>
 </file>
@@ -458,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -478,6 +490,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -811,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94E1F11-B773-49E6-A404-C725AB646410}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,19 +837,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="17" t="s">
         <v>100</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,161 +865,176 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>99</v>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26"/>
+      <c r="B26" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+      <c r="A27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -1028,6 +1056,15 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B229B992-B96E-4724-8F0C-15F9ADA0743E}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,23 +1088,23 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -1076,7 +1113,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -1084,610 +1121,647 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4</v>
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="7">
-        <v>5</v>
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B23" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>40</v>
+      <c r="A24" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B24" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>97</v>
+      <c r="A25" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B25" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>41</v>
+      <c r="A27" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B27" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>19</v>
+      <c r="A30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>28</v>
+      <c r="A31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="7">
-        <v>5</v>
+      <c r="B36" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B37" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B39" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B40" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B41" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B42" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B46" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B47" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B48" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B51" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B52" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>59</v>
+      <c r="A53" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B53" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B55" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B56" s="7">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="7">
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>20</v>
+      <c r="A58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="B59" s="7">
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B60" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B61" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="7">
-        <v>4</v>
+      <c r="A63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="7">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B65" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B66" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B67" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B68" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B69" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B70" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B71" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B72" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>82</v>
+      <c r="A77" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B77" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>83</v>
+      <c r="A78" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B78" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B79" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B80" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>79</v>
+      <c r="A81" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B81" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>80</v>
+      <c r="A82" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B82" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>25</v>
+      <c r="A83" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B83" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B84" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1711,106 +1785,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>99</v>
+      <c r="A1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>98</v>
+      <c r="B2" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="13">
+        <v>149665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12">
-        <v>149665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="13">
+        <v>102979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12">
-        <v>102979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="13">
+        <v>183705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12">
-        <v>183705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="13">
+        <v>141997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12">
-        <v>141997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>100291</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13">
         <v>75267</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="13">
+        <v>79437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="13">
+        <v>66926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="12">
-        <v>79437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="12">
-        <v>66926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="B11" s="13">
         <v>54413</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13">
+        <v>64536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="12">
-        <v>64536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>48447</v>
       </c>
     </row>
@@ -1818,58 +1892,58 @@
       <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>92</v>
+      <c r="B16" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13">
         <v>50193</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="13">
         <v>45173.7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="A19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="13">
         <v>40154.400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="13">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="12">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="B21" s="13">
         <v>11000</v>
       </c>
     </row>
